--- a/2.xlsx
+++ b/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5439e4da3b76b444/Desktop/Encrypt data points by interpolation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC1048ACA11D7E785BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33117E52-47A7-483D-B534-F3BB1BF00CCD}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC1048ACA11D7E785BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{240E3C24-2103-4042-93C4-B1DF820F5759}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -359,23 +362,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>700</v>
       </c>
@@ -383,8 +392,12 @@
         <f>A2^2+5000</f>
         <v>495000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <f>A2^3-5*A2^2+500000</f>
+        <v>341050000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>650</v>
       </c>
@@ -392,8 +405,12 @@
         <f t="shared" ref="B3:B10" si="0">A3^2+5000</f>
         <v>427500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="1">A3^3-5*A3^2+500000</f>
+        <v>273012500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>600</v>
       </c>
@@ -401,8 +418,12 @@
         <f t="shared" si="0"/>
         <v>365000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>214700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>550</v>
       </c>
@@ -410,8 +431,12 @@
         <f t="shared" si="0"/>
         <v>307500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>165362500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -419,8 +444,12 @@
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>124250000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>450</v>
       </c>
@@ -428,8 +457,12 @@
         <f t="shared" si="0"/>
         <v>207500</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>90612500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>400</v>
       </c>
@@ -437,8 +470,12 @@
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>63700000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>350</v>
       </c>
@@ -446,14 +483,22 @@
         <f t="shared" si="0"/>
         <v>127500</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>42762500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>300</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>95000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>27050000</v>
       </c>
     </row>
   </sheetData>
